--- a/data/trans_bre/P18_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_4_R-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -641,47 +673,67 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,23</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>4,25</t>
+          <t>3,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>4,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-3,7</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
+          <t>3,7</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
           <t>-2,21%</t>
         </is>
       </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>2,04%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>34,1%</t>
-        </is>
-      </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>49,15%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-4,06%</t>
+          <t>27,76%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>49,75%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>37,13%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>41,41%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>18,42%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,93; 4,44</t>
+          <t>-5,74; 4,75</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,29; 4,27</t>
+          <t>-4,5; 4,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 8,02</t>
+          <t>-1,43; 7,42</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,79; 7,65</t>
+          <t>0,8; 7,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-6,67; -0,26</t>
+          <t>-1,09; 5,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-16,94; 15,43</t>
+          <t>0,41; 7,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-30,84; 49,3</t>
+          <t>-1,26; 4,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,18; 76,82</t>
+          <t>-16,4; 17,93</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,3; 104,07</t>
+          <t>-31,14; 50,54</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-7,22; -0,38</t>
+          <t>-8,66; 69,66</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6,46; 100,69</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-14,49; 115,84</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>3,95; 98,92</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-12,81; 62,83</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,42</t>
+          <t>4,41</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>4,7</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,29</t>
+          <t>5,3</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,97</t>
+          <t>6,11</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,86</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>16,68%</t>
+          <t>8,88</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>81,02%</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>41,43%</t>
+          <t>16,65%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>69,82%</t>
+          <t>81,29%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-9,93%</t>
+          <t>41,74%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>70,63%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>21,09%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>82,55%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>-0,87%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 10,34</t>
+          <t>-1,49; 9,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>1,14; 8,28</t>
+          <t>0,67; 8,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0,7; 9,91</t>
+          <t>0,64; 9,78</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1,48; 10,52</t>
+          <t>1,63; 10,86</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-17,38; -2,03</t>
+          <t>-1,93; 4,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 43,17</t>
+          <t>1,88; 17,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,96; 197,44</t>
+          <t>-5,28; 5,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,41; 98,58</t>
+          <t>-4,91; 42,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>10,01; 152,86</t>
+          <t>2,78; 197,91</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-19,0; -2,38</t>
+          <t>3,64; 100,28</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>10,21; 158,73</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-24,61; 83,1</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>10,94; 222,24</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-49,82; 97,88</t>
         </is>
       </c>
     </row>
@@ -881,45 +993,65 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,14</t>
+          <t>10,35</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>4,31</t>
+          <t>4,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,29</t>
+          <t>3,05</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>-5,73</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>13,33%</t>
-        </is>
-      </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>114,09%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,92%</t>
+          <t>13,34%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>38,48%</t>
+          <t>167,12%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>30,25%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>34,74%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-43,86%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -934,50 +1066,70 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-8,42; 16,05</t>
+          <t>-7,06; 16,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 16,57</t>
+          <t>2,27; 17,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 13,66</t>
+          <t>-3,83; 12,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,64; 9,85</t>
+          <t>-3,51; 10,58</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
+          <t>-18,24; 2,54</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-20,59; 58,61</t>
-        </is>
-      </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-32,25; 430,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-20,29; 126,42</t>
+          <t>-18,05; 63,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-29,31; 197,5</t>
+          <t>11,92; 552,43</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-20,69; 119,82</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-31,48; 182,53</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-82,64; 41,02</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1001,47 +1153,67 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,89</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,63</t>
+          <t>4,35</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,93</t>
+          <t>4,97</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-4,76</t>
+          <t>1,1</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>4,77</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,41%</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>35,91%</t>
+          <t>6,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>55,87%</t>
+          <t>38,4%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-5,26%</t>
+          <t>33,1%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>56,01%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>14,57%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>50,91%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>14,71%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,91 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 5,78</t>
+          <t>-1,86; 5,51</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 5,48</t>
+          <t>0,74; 6,06</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,54; 7,37</t>
+          <t>1,21; 7,22</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,47; 7,6</t>
+          <t>2,43; 7,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,56; -1,58</t>
+          <t>-1,54; 3,71</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-5,09; 21,09</t>
+          <t>1,17; 7,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-0,85; 82,88</t>
+          <t>-1,56; 3,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,25; 64,72</t>
+          <t>-5,83; 19,86</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>24,12; 97,7</t>
+          <t>5,93; 86,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-8,27; -1,85</t>
+          <t>7,53; 64,0</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>22,97; 98,62</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-18,01; 58,5</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>10,77; 94,44</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-15,13; 51,76</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P18_4_R-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P18_4_R-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -666,479 +675,307 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,29</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>3,6</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>4,52</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>2,49</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>3,7</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>1,69</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>-2,21%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>2,57%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>27,76%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>49,75%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>37,13%</t>
-        </is>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>41,41%</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>18,42%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.692766176234394</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.979925227947942</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>3.93166739661853</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>4.580336306019654</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>2.752990415915345</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>3.695822668790961</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.673264686016582</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>-0.02211742585919676</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.09099253746093082</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.3101276186866192</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>0.5064530835960264</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>0.4162335062464887</v>
+      </c>
+      <c r="O4" s="6" t="n">
+        <v>0.4141213102417006</v>
+      </c>
+      <c r="P4" s="6" t="n">
+        <v>0.1812876124003203</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-5,74; 4,75</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-4,5; 4,2</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-1,43; 7,42</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>0,8; 7,65</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-1,09; 5,95</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>0,41; 7,17</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-1,26; 4,81</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-16,4; 17,93</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-31,14; 50,54</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-8,66; 69,66</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>6,46; 100,69</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-14,49; 115,84</t>
-        </is>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>3,95; 98,92</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>-12,81; 62,83</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-5.743378171838836</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.764417239522842</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.6187431630211192</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0.9256462563507819</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>-0.7075900332119334</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>0.4118518997319701</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>-1.306548997848339</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.1640033515895996</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.2792655075109352</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>-0.04837259632640081</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.07995634470438145</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>-0.1209055299131617</v>
+      </c>
+      <c r="O5" s="6" t="n">
+        <v>0.03954873982404983</v>
+      </c>
+      <c r="P5" s="6" t="n">
+        <v>-0.130993505068337</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>4.751958182990641</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>5.020806918353339</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>7.689994969373096</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>7.728020091804891</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>6.46736247665608</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>7.173488672802939</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>4.817376329799385</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>0.179349084484952</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>0.5950396476503567</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>0.7431040237191507</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1.030953704372848</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>1.251800811191134</v>
+      </c>
+      <c r="O6" s="6" t="n">
+        <v>0.9891775635233558</v>
+      </c>
+      <c r="P6" s="6" t="n">
+        <v>0.6269943386902858</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,41</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>4,7</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>5,3</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>6,11</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>8,88</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-0,07</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>16,65%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>81,29%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>41,74%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>70,63%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>21,09%</t>
-        </is>
-      </c>
-      <c r="O6" s="2" t="inlineStr">
-        <is>
-          <t>82,55%</t>
-        </is>
-      </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>-0,87%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-1,49; 9,99</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,67; 8,54</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>0,64; 9,78</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>1,63; 10,86</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-1,93; 4,55</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,88; 17,08</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-5,28; 5,86</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-4,91; 42,69</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>2,78; 197,91</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>3,64; 100,28</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>10,21; 158,73</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-24,61; 83,1</t>
-        </is>
-      </c>
-      <c r="O7" s="2" t="inlineStr">
-        <is>
-          <t>10,94; 222,24</t>
-        </is>
-      </c>
-      <c r="P7" s="2" t="inlineStr">
-        <is>
-          <t>-49,82; 97,88</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.412545849788385</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.048927553149582</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>5.214571598748543</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>6.08449082520721</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>1.432523803076141</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>8.87651194594261</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.05860275527568015</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>0.1665252607808449</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.6635555248035504</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>0.4108670019943709</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>0.7226637047244289</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>0.2041336418313071</v>
+      </c>
+      <c r="O7" s="6" t="n">
+        <v>0.8254709058036546</v>
+      </c>
+      <c r="P7" s="6" t="n">
+        <v>0.006948661572102454</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>4,54</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>10,35</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>4,59</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,05</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-5,73</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>13,34%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>167,12%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>30,25%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>34,74%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-43,86%</t>
-        </is>
-      </c>
-      <c r="O8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="P8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-1.493287442809869</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.2464012607273172</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>0.4235516163499727</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>2.078446617909161</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>-2.134758373863993</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>1.879763214155393</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-5.084194808962161</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.04910805113493958</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.06642514204271678</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.02530063428365037</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>0.1497376232594682</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>-0.247693925767268</v>
+      </c>
+      <c r="O8" s="6" t="n">
+        <v>0.1093804987617141</v>
+      </c>
+      <c r="P8" s="6" t="n">
+        <v>-0.4878084564420004</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-7,06; 16,92</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,27; 17,89</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,83; 12,73</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-3,51; 10,58</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-18,24; 2,54</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-18,05; 63,07</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>11,92; 552,43</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-20,69; 119,82</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-31,48; 182,53</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-82,64; 41,02</t>
-        </is>
-      </c>
-      <c r="O9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="P9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.989034949257611</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.583741251640581</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>9.803707646061884</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>10.71397167040196</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>4.663661669975734</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>17.08112722959208</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>6.519589101986126</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.4269111501233996</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.635778379636578</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>1.001552426741878</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>1.618784520467002</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>0.8309847235639622</v>
+      </c>
+      <c r="O9" s="6" t="n">
+        <v>2.222355129437988</v>
+      </c>
+      <c r="P9" s="6" t="n">
+        <v>1.137231869961479</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1146,157 +983,281 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>3,24</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>4,35</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>4,97</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1,1</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>4,77</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>6,39%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>38,4%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>33,1%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>56,01%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>14,57%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>50,91%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>14,71%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>4.544041017175765</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>8.785538788657739</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>4.761229159933336</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>3.117861524588875</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>-6.272577119893592</v>
+      </c>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="5" t="inlineStr"/>
+      <c r="J10" s="6" t="n">
+        <v>0.1334156749837633</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.234270047573636</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.3207484292662712</v>
+      </c>
+      <c r="M10" s="6" t="n">
+        <v>0.3634628192013385</v>
+      </c>
+      <c r="N10" s="6" t="n">
+        <v>-0.4740438120636339</v>
+      </c>
+      <c r="O10" s="6" t="inlineStr"/>
+      <c r="P10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-1,86; 5,51</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>0,74; 6,06</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>1,21; 7,22</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>2,43; 7,56</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-1,54; 3,71</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>1,17; 7,81</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-1,56; 3,93</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-5,83; 19,86</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>5,93; 86,98</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>7,53; 64,0</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>22,97; 98,62</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-18,01; 58,5</t>
-        </is>
-      </c>
-      <c r="O11" s="2" t="inlineStr">
-        <is>
-          <t>10,77; 94,44</t>
-        </is>
-      </c>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>-15,13; 51,76</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-7.06139667075439</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-1.069443227934864</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-3.54071245196561</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-3.546814744078103</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-19.39234179855222</v>
+      </c>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="5" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.1804788709130492</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.2245569075694689</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.1922334032742608</v>
+      </c>
+      <c r="M11" s="6" t="n">
+        <v>-0.3228872133143159</v>
+      </c>
+      <c r="N11" s="6" t="n">
+        <v>-0.8460439280824972</v>
+      </c>
+      <c r="O11" s="6" t="inlineStr"/>
+      <c r="P11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>16.91659542369667</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>16.63452411290214</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>13.04178100128056</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>10.03099285085381</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>1.751460362093098</v>
+      </c>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="5" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>0.6306889128095523</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>4.895843930120156</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>1.206609668084553</v>
+      </c>
+      <c r="M12" s="6" t="n">
+        <v>1.792224122864102</v>
+      </c>
+      <c r="N12" s="6" t="n">
+        <v>0.3328384758553085</v>
+      </c>
+      <c r="O12" s="6" t="inlineStr"/>
+      <c r="P12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>1.899232312000843</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>3.138229781761863</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>4.496407508925746</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>5.003348801262917</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>1.157781581568808</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>4.766002704054044</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>1.335625554311222</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.06388633213983029</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.3708882693665578</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>0.3472831427148405</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>0.5726135938761909</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>0.1526970133435276</v>
+      </c>
+      <c r="O13" s="6" t="n">
+        <v>0.5090611795626321</v>
+      </c>
+      <c r="P13" s="6" t="n">
+        <v>0.1477866851319589</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-1.856076788832941</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.5767134188294145</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>1.474892523294401</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>2.560170811128659</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>-1.419997456756585</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>1.165381361746908</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>-1.59146631031201</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.05827266558283628</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.03924739388868258</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.0833158360453517</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.2490822782869577</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>-0.1836669554155807</v>
+      </c>
+      <c r="O14" s="6" t="n">
+        <v>0.1076877506927052</v>
+      </c>
+      <c r="P14" s="6" t="n">
+        <v>-0.1607970898981612</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>5.512171105220174</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.892198772057557</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>7.426442339615511</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>7.555645797430143</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>3.789753364737297</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>7.805819435099706</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>3.955277575819808</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.1986068557710567</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>0.8623991057047213</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>0.6594037045613006</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>0.9690618127203207</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>0.605911723697761</v>
+      </c>
+      <c r="O15" s="6" t="n">
+        <v>0.9443812267932017</v>
+      </c>
+      <c r="P15" s="6" t="n">
+        <v>0.5159451309630849</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1305,12 +1266,12 @@
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="J1:P1"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
